--- a/examples/component_inputs.xlsx
+++ b/examples/component_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5660C6-4F86-4BAC-89C2-6DA8FF7EF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB540133-DC34-4A7D-906F-18B9A2DEDC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -332,7 +332,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBAA89-057F-4D2B-9FD7-B9BCC238CF01}">
   <dimension ref="A1:AE995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A8463-2B96-461E-9F1D-83F4C3412B20}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2289,7 +2289,7 @@
   <dimension ref="A1:AH992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>27</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
@@ -2727,10 +2727,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>31</v>
@@ -2771,10 +2771,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>33</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>35</v>
@@ -4268,7 +4268,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A5" sqref="A5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12792,7 +12792,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
